--- a/Lib/thinBasic_Excel/Excel_Test.tbasic_1.xlsx
+++ b/Lib/thinBasic_Excel/Excel_Test.tbasic_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23295" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="thinBasic Test 2" sheetId="2" r:id="rId1"/>
